--- a/data/pca/factorExposure/factorExposure_2015-08-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02242374482808563</v>
+        <v>0.01678271889848513</v>
       </c>
       <c r="C2">
-        <v>0.02658464919909375</v>
+        <v>0.04577797116638622</v>
       </c>
       <c r="D2">
-        <v>-0.1328565086381342</v>
+        <v>0.1391594122927523</v>
       </c>
       <c r="E2">
-        <v>0.01236150120915678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.003726391173306957</v>
+      </c>
+      <c r="F2">
+        <v>0.0002887759959537752</v>
+      </c>
+      <c r="G2">
+        <v>0.1087575969456126</v>
+      </c>
+      <c r="H2">
+        <v>0.03934411933510732</v>
+      </c>
+      <c r="I2">
+        <v>-0.06083024985027985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01602037064063318</v>
+        <v>-0.01675220415482514</v>
       </c>
       <c r="C3">
-        <v>0.03824178197016001</v>
+        <v>0.02188264252495483</v>
       </c>
       <c r="D3">
-        <v>-0.02115878470546233</v>
+        <v>0.02007486529994311</v>
       </c>
       <c r="E3">
-        <v>0.04792722491633211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.03440373795010596</v>
+      </c>
+      <c r="F3">
+        <v>0.006888187038508436</v>
+      </c>
+      <c r="G3">
+        <v>0.07740982344513692</v>
+      </c>
+      <c r="H3">
+        <v>0.01094867467221749</v>
+      </c>
+      <c r="I3">
+        <v>0.08103959706352369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03415496991223479</v>
+        <v>0.0254199199997832</v>
       </c>
       <c r="C4">
-        <v>0.07024419212654912</v>
+        <v>0.08999936040106768</v>
       </c>
       <c r="D4">
-        <v>-0.1414963966616711</v>
+        <v>0.1515138409484998</v>
       </c>
       <c r="E4">
-        <v>0.06772478636962299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01938569014148284</v>
+      </c>
+      <c r="F4">
+        <v>0.08342001067504168</v>
+      </c>
+      <c r="G4">
+        <v>-0.003093905979582179</v>
+      </c>
+      <c r="H4">
+        <v>0.04427370970564633</v>
+      </c>
+      <c r="I4">
+        <v>-0.01568685767681028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0242913123116265</v>
+        <v>0.02585746502894931</v>
       </c>
       <c r="C6">
-        <v>0.01539192615139858</v>
+        <v>0.03019305659715734</v>
       </c>
       <c r="D6">
-        <v>-0.1489840380757362</v>
+        <v>0.1287732540281388</v>
       </c>
       <c r="E6">
-        <v>0.03389839992844153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03471308964536966</v>
+      </c>
+      <c r="F6">
+        <v>0.05104375955122321</v>
+      </c>
+      <c r="G6">
+        <v>0.04634436305691363</v>
+      </c>
+      <c r="H6">
+        <v>0.02477499795532273</v>
+      </c>
+      <c r="I6">
+        <v>0.02300809245375844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007205407553634084</v>
+        <v>0.007580160821093306</v>
       </c>
       <c r="C7">
-        <v>0.02526800996951505</v>
+        <v>0.0337917223175135</v>
       </c>
       <c r="D7">
-        <v>-0.1191727553952757</v>
+        <v>0.1018777673232029</v>
       </c>
       <c r="E7">
-        <v>-0.009552959567378805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04299809047912348</v>
+      </c>
+      <c r="F7">
+        <v>0.009746975839808878</v>
+      </c>
+      <c r="G7">
+        <v>0.03358954695238212</v>
+      </c>
+      <c r="H7">
+        <v>0.05972185254394066</v>
+      </c>
+      <c r="I7">
+        <v>0.04577056919410718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001757953499810087</v>
+        <v>-0.004651784723396228</v>
       </c>
       <c r="C8">
-        <v>0.03150235860721868</v>
+        <v>0.0375687839443013</v>
       </c>
       <c r="D8">
-        <v>-0.08353537462858351</v>
+        <v>0.08178166079186168</v>
       </c>
       <c r="E8">
-        <v>0.02932181704007733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01167510621873025</v>
+      </c>
+      <c r="F8">
+        <v>0.04780967573317692</v>
+      </c>
+      <c r="G8">
+        <v>0.09476266280926189</v>
+      </c>
+      <c r="H8">
+        <v>-0.01203287376812848</v>
+      </c>
+      <c r="I8">
+        <v>0.03768579947711945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03011157444092208</v>
+        <v>0.01984525589087485</v>
       </c>
       <c r="C9">
-        <v>0.06500522514061972</v>
+        <v>0.07984047527315573</v>
       </c>
       <c r="D9">
-        <v>-0.1337696422993879</v>
+        <v>0.1265226220614262</v>
       </c>
       <c r="E9">
-        <v>0.05549940428423245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01019802006749245</v>
+      </c>
+      <c r="F9">
+        <v>0.0491197649913296</v>
+      </c>
+      <c r="G9">
+        <v>-0.003297207700776264</v>
+      </c>
+      <c r="H9">
+        <v>0.04906379610773784</v>
+      </c>
+      <c r="I9">
+        <v>-0.0001726417765638771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1563156693113017</v>
+        <v>0.2127911193082344</v>
       </c>
       <c r="C10">
-        <v>-0.1655391084538132</v>
+        <v>-0.1221193098491269</v>
       </c>
       <c r="D10">
-        <v>-0.01887697395548653</v>
+        <v>0.009581698400702101</v>
       </c>
       <c r="E10">
-        <v>0.05009826869194539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02782173424689411</v>
+      </c>
+      <c r="F10">
+        <v>0.05018705313317086</v>
+      </c>
+      <c r="G10">
+        <v>-0.006442161848261128</v>
+      </c>
+      <c r="H10">
+        <v>-0.05862606882638867</v>
+      </c>
+      <c r="I10">
+        <v>0.1178614224757779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02146431318778104</v>
+        <v>0.01330686405971543</v>
       </c>
       <c r="C11">
-        <v>0.04359220481241152</v>
+        <v>0.05239487878043809</v>
       </c>
       <c r="D11">
-        <v>-0.0561640065600223</v>
+        <v>0.04954111634078076</v>
       </c>
       <c r="E11">
-        <v>-0.01440578407475568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0185694724530979</v>
+      </c>
+      <c r="F11">
+        <v>-0.01333826147036181</v>
+      </c>
+      <c r="G11">
+        <v>0.0106349339052117</v>
+      </c>
+      <c r="H11">
+        <v>0.04348729237036488</v>
+      </c>
+      <c r="I11">
+        <v>-0.007379597373467369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02303155360676348</v>
+        <v>0.01400466533524519</v>
       </c>
       <c r="C12">
-        <v>0.0423978754798656</v>
+        <v>0.04898107753354958</v>
       </c>
       <c r="D12">
-        <v>-0.06938944292272543</v>
+        <v>0.0520542043043602</v>
       </c>
       <c r="E12">
-        <v>-0.001490704521618987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01526922337043099</v>
+      </c>
+      <c r="F12">
+        <v>-0.01565185073103982</v>
+      </c>
+      <c r="G12">
+        <v>0.006794926144526566</v>
+      </c>
+      <c r="H12">
+        <v>0.07210042572764967</v>
+      </c>
+      <c r="I12">
+        <v>0.002259953650246827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.002234333089300269</v>
+        <v>0.005108782069502832</v>
       </c>
       <c r="C13">
-        <v>0.02767733682340262</v>
+        <v>0.04319664057938791</v>
       </c>
       <c r="D13">
-        <v>-0.1541087458601703</v>
+        <v>0.1573091668339467</v>
       </c>
       <c r="E13">
-        <v>0.03251541791283039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04013697731071258</v>
+      </c>
+      <c r="F13">
+        <v>0.03968727964028263</v>
+      </c>
+      <c r="G13">
+        <v>0.05620429878976354</v>
+      </c>
+      <c r="H13">
+        <v>0.0549350802216436</v>
+      </c>
+      <c r="I13">
+        <v>0.06738526615820846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.002617444559465131</v>
+        <v>0.0004851200563705897</v>
       </c>
       <c r="C14">
-        <v>0.02258291232867684</v>
+        <v>0.02893875495847016</v>
       </c>
       <c r="D14">
-        <v>-0.1096492965758517</v>
+        <v>0.105220547342913</v>
       </c>
       <c r="E14">
-        <v>0.02142089765827588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01870330887112042</v>
+      </c>
+      <c r="F14">
+        <v>0.01806068582925672</v>
+      </c>
+      <c r="G14">
+        <v>0.06527167876153256</v>
+      </c>
+      <c r="H14">
+        <v>0.09985136727690243</v>
+      </c>
+      <c r="I14">
+        <v>0.01177445672869556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002835174745410862</v>
+        <v>0.0002968933929179985</v>
       </c>
       <c r="C15">
-        <v>0.01111149337453645</v>
+        <v>0.01717985809905196</v>
       </c>
       <c r="D15">
-        <v>-0.0235126882013091</v>
+        <v>0.04881518612987191</v>
       </c>
       <c r="E15">
-        <v>-0.01129697064208803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.004393995686478322</v>
+      </c>
+      <c r="F15">
+        <v>0.001996138377633298</v>
+      </c>
+      <c r="G15">
+        <v>0.0227344000685989</v>
+      </c>
+      <c r="H15">
+        <v>0.01217505017063363</v>
+      </c>
+      <c r="I15">
+        <v>-0.02156761458761332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01919817048242805</v>
+        <v>0.01294314678087941</v>
       </c>
       <c r="C16">
-        <v>0.04008013420939716</v>
+        <v>0.04710201455427136</v>
       </c>
       <c r="D16">
-        <v>-0.06439388000017739</v>
+        <v>0.05071774477770813</v>
       </c>
       <c r="E16">
-        <v>-0.006354814431911437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01903522127399675</v>
+      </c>
+      <c r="F16">
+        <v>-0.006952870228276563</v>
+      </c>
+      <c r="G16">
+        <v>0.003275389179959569</v>
+      </c>
+      <c r="H16">
+        <v>0.05140585119763921</v>
+      </c>
+      <c r="I16">
+        <v>-0.00589712375985498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.002328404302939126</v>
+        <v>-0.0007479538145580683</v>
       </c>
       <c r="C19">
-        <v>0.02359523192509888</v>
+        <v>0.02011176015402322</v>
       </c>
       <c r="D19">
-        <v>-0.1413862064439876</v>
+        <v>0.09325049167939271</v>
       </c>
       <c r="E19">
-        <v>0.06947658650843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02237053578485692</v>
+      </c>
+      <c r="F19">
+        <v>0.008550956446486182</v>
+      </c>
+      <c r="G19">
+        <v>0.03625371583814085</v>
+      </c>
+      <c r="H19">
+        <v>0.06455113159923535</v>
+      </c>
+      <c r="I19">
+        <v>0.03503913403635801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003275652456109431</v>
+        <v>0.004240807519177375</v>
       </c>
       <c r="C20">
-        <v>0.0320462900135409</v>
+        <v>0.04019829902446171</v>
       </c>
       <c r="D20">
-        <v>-0.0964455181377688</v>
+        <v>0.102644403114384</v>
       </c>
       <c r="E20">
-        <v>0.04260105079997392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.001955807506848165</v>
+      </c>
+      <c r="F20">
+        <v>0.02979850596432809</v>
+      </c>
+      <c r="G20">
+        <v>0.03834176151656346</v>
+      </c>
+      <c r="H20">
+        <v>0.05923723395670295</v>
+      </c>
+      <c r="I20">
+        <v>0.02464000902817572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.003416903660298093</v>
+        <v>5.326106676342946e-05</v>
       </c>
       <c r="C21">
-        <v>0.0357018188401832</v>
+        <v>0.04280905769738514</v>
       </c>
       <c r="D21">
-        <v>-0.1747073803438985</v>
+        <v>0.1453994027619604</v>
       </c>
       <c r="E21">
-        <v>0.07600155850320628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01655839603685013</v>
+      </c>
+      <c r="F21">
+        <v>0.06083556352358266</v>
+      </c>
+      <c r="G21">
+        <v>0.0759590626196181</v>
+      </c>
+      <c r="H21">
+        <v>0.145062548096026</v>
+      </c>
+      <c r="I21">
+        <v>0.07948879816832269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002565739996122176</v>
+        <v>-0.00312340807625653</v>
       </c>
       <c r="C22">
-        <v>0.05642052294343814</v>
+        <v>0.06953038092858686</v>
       </c>
       <c r="D22">
-        <v>-0.1917102894431549</v>
+        <v>0.235842008358227</v>
       </c>
       <c r="E22">
-        <v>-0.06143584760946431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04614294929959042</v>
+      </c>
+      <c r="F22">
+        <v>0.0250903558133728</v>
+      </c>
+      <c r="G22">
+        <v>0.1656393693329673</v>
+      </c>
+      <c r="H22">
+        <v>-0.4718582853777946</v>
+      </c>
+      <c r="I22">
+        <v>-0.2191401413707636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002360035110247036</v>
+        <v>-0.002707574323487345</v>
       </c>
       <c r="C23">
-        <v>0.05685418247322574</v>
+        <v>0.0704423428011864</v>
       </c>
       <c r="D23">
-        <v>-0.1912534399610023</v>
+        <v>0.2365200128020232</v>
       </c>
       <c r="E23">
-        <v>-0.0611989800434206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04325558887293568</v>
+      </c>
+      <c r="F23">
+        <v>0.02411363179201272</v>
+      </c>
+      <c r="G23">
+        <v>0.1641800672829095</v>
+      </c>
+      <c r="H23">
+        <v>-0.4718799168700121</v>
+      </c>
+      <c r="I23">
+        <v>-0.2205804035258274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02600643884044188</v>
+        <v>0.01460608255278143</v>
       </c>
       <c r="C24">
-        <v>0.05846173877407049</v>
+        <v>0.06397928732606807</v>
       </c>
       <c r="D24">
-        <v>-0.07531636434879441</v>
+        <v>0.05942407691197309</v>
       </c>
       <c r="E24">
-        <v>-0.0003249846670123236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.020368868652105</v>
+      </c>
+      <c r="F24">
+        <v>-0.005720912201539791</v>
+      </c>
+      <c r="G24">
+        <v>0.01669175385093589</v>
+      </c>
+      <c r="H24">
+        <v>0.07527807645352863</v>
+      </c>
+      <c r="I24">
+        <v>-0.007064564255004584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03033762695532071</v>
+        <v>0.01875404257637663</v>
       </c>
       <c r="C25">
-        <v>0.05017432556441567</v>
+        <v>0.06001748433267393</v>
       </c>
       <c r="D25">
-        <v>-0.07049384910152691</v>
+        <v>0.05783048460127679</v>
       </c>
       <c r="E25">
-        <v>0.007446896407242904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008130373975597205</v>
+      </c>
+      <c r="F25">
+        <v>-0.00875018117355276</v>
+      </c>
+      <c r="G25">
+        <v>0.004705987661220012</v>
+      </c>
+      <c r="H25">
+        <v>0.04620880924182028</v>
+      </c>
+      <c r="I25">
+        <v>-0.0009372247200016089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005275347957502273</v>
+        <v>0.006550579397335173</v>
       </c>
       <c r="C26">
-        <v>0.01538710453905439</v>
+        <v>0.02391749632008794</v>
       </c>
       <c r="D26">
-        <v>-0.07896508060980595</v>
+        <v>0.07347205054437221</v>
       </c>
       <c r="E26">
-        <v>0.02159879396732644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01959035204680592</v>
+      </c>
+      <c r="F26">
+        <v>0.02309154518714794</v>
+      </c>
+      <c r="G26">
+        <v>0.03509759527722896</v>
+      </c>
+      <c r="H26">
+        <v>0.0678393868654458</v>
+      </c>
+      <c r="I26">
+        <v>0.04299060925982744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2400700897505372</v>
+        <v>0.3091423353040745</v>
       </c>
       <c r="C28">
-        <v>-0.2124142754739864</v>
+        <v>-0.1425605600275337</v>
       </c>
       <c r="D28">
-        <v>-0.0215307588452119</v>
+        <v>0.001912397687221891</v>
       </c>
       <c r="E28">
-        <v>0.07225842713530323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04957053917659533</v>
+      </c>
+      <c r="F28">
+        <v>0.03973108746880055</v>
+      </c>
+      <c r="G28">
+        <v>-0.02122064658796739</v>
+      </c>
+      <c r="H28">
+        <v>-0.02734062418535426</v>
+      </c>
+      <c r="I28">
+        <v>0.08736900896463652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002483488450903455</v>
+        <v>0.0007810012943321576</v>
       </c>
       <c r="C29">
-        <v>0.02081479113183828</v>
+        <v>0.02840275513899331</v>
       </c>
       <c r="D29">
-        <v>-0.101927127409679</v>
+        <v>0.1021463089759604</v>
       </c>
       <c r="E29">
-        <v>0.01535411396880503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03273826045426345</v>
+      </c>
+      <c r="F29">
+        <v>0.02778986178988697</v>
+      </c>
+      <c r="G29">
+        <v>0.05057505461773688</v>
+      </c>
+      <c r="H29">
+        <v>0.09821754532162894</v>
+      </c>
+      <c r="I29">
+        <v>0.02089384764468707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01730558927949214</v>
+        <v>0.01722841445309662</v>
       </c>
       <c r="C30">
-        <v>0.05988381443725377</v>
+        <v>0.07804194617615878</v>
       </c>
       <c r="D30">
-        <v>-0.1692878498548996</v>
+        <v>0.1694297148855079</v>
       </c>
       <c r="E30">
-        <v>0.01094000513338879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03652767493421154</v>
+      </c>
+      <c r="F30">
+        <v>0.03527087157115518</v>
+      </c>
+      <c r="G30">
+        <v>0.03836947691688851</v>
+      </c>
+      <c r="H30">
+        <v>0.0361671785838911</v>
+      </c>
+      <c r="I30">
+        <v>-0.04662642763144439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04153309318320483</v>
+        <v>0.01821835837966629</v>
       </c>
       <c r="C31">
-        <v>0.08379649529084837</v>
+        <v>0.08885127515929694</v>
       </c>
       <c r="D31">
-        <v>-0.08170091218607652</v>
+        <v>0.04676148311969359</v>
       </c>
       <c r="E31">
-        <v>0.02261786256422246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008454916431520656</v>
+      </c>
+      <c r="F31">
+        <v>0.01731496865226458</v>
+      </c>
+      <c r="G31">
+        <v>0.02412845113553542</v>
+      </c>
+      <c r="H31">
+        <v>0.03977445079033701</v>
+      </c>
+      <c r="I31">
+        <v>0.054436416506993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02195450961525622</v>
+        <v>0.01716080392230072</v>
       </c>
       <c r="C32">
-        <v>0.03052626549633756</v>
+        <v>0.03781324190443076</v>
       </c>
       <c r="D32">
-        <v>-0.1119729304041167</v>
+        <v>0.1150813914614538</v>
       </c>
       <c r="E32">
-        <v>0.05322573704268722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.001591775531412188</v>
+      </c>
+      <c r="F32">
+        <v>0.04403035571326806</v>
+      </c>
+      <c r="G32">
+        <v>0.02692326749418335</v>
+      </c>
+      <c r="H32">
+        <v>0.0162139853102229</v>
+      </c>
+      <c r="I32">
+        <v>0.07434255605348691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01489017001403686</v>
+        <v>0.0128072148054618</v>
       </c>
       <c r="C33">
-        <v>0.04146336378803008</v>
+        <v>0.05425375971179381</v>
       </c>
       <c r="D33">
-        <v>-0.1536091705953587</v>
+        <v>0.133974303992907</v>
       </c>
       <c r="E33">
-        <v>0.04174728064209107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01302002571937573</v>
+      </c>
+      <c r="F33">
+        <v>0.02324261212666453</v>
+      </c>
+      <c r="G33">
+        <v>0.02868709754424128</v>
+      </c>
+      <c r="H33">
+        <v>0.05608084014222926</v>
+      </c>
+      <c r="I33">
+        <v>0.009513699831580406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02592456879062973</v>
+        <v>0.01300027051017354</v>
       </c>
       <c r="C34">
-        <v>0.05892404313762255</v>
+        <v>0.06288076093162968</v>
       </c>
       <c r="D34">
-        <v>-0.05502036318140677</v>
+        <v>0.03750704463948724</v>
       </c>
       <c r="E34">
-        <v>-0.0400675401554033</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02847616634356409</v>
+      </c>
+      <c r="F34">
+        <v>-0.03685758435103097</v>
+      </c>
+      <c r="G34">
+        <v>0.01314730579841635</v>
+      </c>
+      <c r="H34">
+        <v>0.05687783045810109</v>
+      </c>
+      <c r="I34">
+        <v>0.009089278634618824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001642074694523955</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004013078460065119</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01467473217585349</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.001773192841947224</v>
+      </c>
+      <c r="F35">
+        <v>-0.001438066727224862</v>
+      </c>
+      <c r="G35">
+        <v>0.0003199765617620228</v>
+      </c>
+      <c r="H35">
+        <v>0.007459225782639466</v>
+      </c>
+      <c r="I35">
+        <v>-0.003438711683084258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01064230022777722</v>
+        <v>0.01258111415138284</v>
       </c>
       <c r="C36">
-        <v>0.004425106482377219</v>
+        <v>0.01764214890647147</v>
       </c>
       <c r="D36">
-        <v>-0.1003838590593382</v>
+        <v>0.0874061046617246</v>
       </c>
       <c r="E36">
-        <v>0.04433522384958666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.005642811444732226</v>
+      </c>
+      <c r="F36">
+        <v>0.03195218521418008</v>
+      </c>
+      <c r="G36">
+        <v>0.02345651104797246</v>
+      </c>
+      <c r="H36">
+        <v>0.05685887499273122</v>
+      </c>
+      <c r="I36">
+        <v>0.02095371778477588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.009379359282622927</v>
+        <v>0.01765806776053498</v>
       </c>
       <c r="C38">
-        <v>0.01169202314737483</v>
+        <v>0.01802367411036339</v>
       </c>
       <c r="D38">
-        <v>-0.08920342984797232</v>
+        <v>0.08594178757019613</v>
       </c>
       <c r="E38">
-        <v>0.02791881666228093</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01305078286804326</v>
+      </c>
+      <c r="F38">
+        <v>-0.01369158340608847</v>
+      </c>
+      <c r="G38">
+        <v>0.03883013144727736</v>
+      </c>
+      <c r="H38">
+        <v>0.04376609360476657</v>
+      </c>
+      <c r="I38">
+        <v>0.0121805604818863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02442346944574166</v>
+        <v>0.01427635001011199</v>
       </c>
       <c r="C39">
-        <v>0.05636257863382166</v>
+        <v>0.07450874386864552</v>
       </c>
       <c r="D39">
-        <v>-0.1066662237799022</v>
+        <v>0.1026015664832627</v>
       </c>
       <c r="E39">
-        <v>-0.02970272341223553</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04590941320189042</v>
+      </c>
+      <c r="F39">
+        <v>-0.01512928546557933</v>
+      </c>
+      <c r="G39">
+        <v>0.01664666244576397</v>
+      </c>
+      <c r="H39">
+        <v>0.09443880838499678</v>
+      </c>
+      <c r="I39">
+        <v>-0.05228854423151663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01209970094656628</v>
+        <v>0.00804836659366715</v>
       </c>
       <c r="C40">
-        <v>0.04122372978362017</v>
+        <v>0.04077362627993822</v>
       </c>
       <c r="D40">
-        <v>-0.119680527764205</v>
+        <v>0.1004770878144319</v>
       </c>
       <c r="E40">
-        <v>0.04005071491828927</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01825611343079137</v>
+      </c>
+      <c r="F40">
+        <v>0.01805336281067047</v>
+      </c>
+      <c r="G40">
+        <v>0.2462715748507295</v>
+      </c>
+      <c r="H40">
+        <v>0.01725580521772177</v>
+      </c>
+      <c r="I40">
+        <v>0.1528333854971957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01741090794737379</v>
+        <v>0.01717980180888906</v>
       </c>
       <c r="C41">
-        <v>0.004005351036992491</v>
+        <v>0.01451784567422158</v>
       </c>
       <c r="D41">
-        <v>-0.0769643667722084</v>
+        <v>0.05358387588272681</v>
       </c>
       <c r="E41">
-        <v>0.04321933562193772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01716027367926028</v>
+      </c>
+      <c r="F41">
+        <v>0.01552650433293551</v>
+      </c>
+      <c r="G41">
+        <v>0.02710065512489901</v>
+      </c>
+      <c r="H41">
+        <v>0.02794122585483962</v>
+      </c>
+      <c r="I41">
+        <v>0.03823443037691788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0107796823685769</v>
+        <v>0.0103552981380242</v>
       </c>
       <c r="C43">
-        <v>0.008494774787957966</v>
+        <v>0.01617094786506428</v>
       </c>
       <c r="D43">
-        <v>-0.09115625718170307</v>
+        <v>0.06633833228164687</v>
       </c>
       <c r="E43">
-        <v>0.03789330631668038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.005073178372192798</v>
+      </c>
+      <c r="F43">
+        <v>0.01151432950759592</v>
+      </c>
+      <c r="G43">
+        <v>0.03371465636846929</v>
+      </c>
+      <c r="H43">
+        <v>0.05751626858230657</v>
+      </c>
+      <c r="I43">
+        <v>0.03551375609203524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.004787800292305652</v>
+        <v>0.007837660655308656</v>
       </c>
       <c r="C44">
-        <v>0.03964392312575522</v>
+        <v>0.04567104117463139</v>
       </c>
       <c r="D44">
-        <v>-0.1018831213817352</v>
+        <v>0.1133687107106977</v>
       </c>
       <c r="E44">
-        <v>0.04512279967126754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.003416879565148263</v>
+      </c>
+      <c r="F44">
+        <v>0.02013681266900821</v>
+      </c>
+      <c r="G44">
+        <v>0.03337312254725441</v>
+      </c>
+      <c r="H44">
+        <v>0.04634758845739695</v>
+      </c>
+      <c r="I44">
+        <v>-0.02641255103916343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.007234956609009442</v>
+        <v>0.001694752697539395</v>
       </c>
       <c r="C46">
-        <v>0.02882890325888156</v>
+        <v>0.03669117225676468</v>
       </c>
       <c r="D46">
-        <v>-0.1096465916655573</v>
+        <v>0.0904053011180953</v>
       </c>
       <c r="E46">
-        <v>0.02757738314688002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01683265248950472</v>
+      </c>
+      <c r="F46">
+        <v>0.02170129010782604</v>
+      </c>
+      <c r="G46">
+        <v>0.05049154009604694</v>
+      </c>
+      <c r="H46">
+        <v>0.1112919021321076</v>
+      </c>
+      <c r="I46">
+        <v>0.03125844263536318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07844423137832733</v>
+        <v>0.04410289316708984</v>
       </c>
       <c r="C47">
-        <v>0.1071138574308189</v>
+        <v>0.119264826818861</v>
       </c>
       <c r="D47">
-        <v>-0.06323042132058583</v>
+        <v>0.02688572592495649</v>
       </c>
       <c r="E47">
-        <v>0.03481386334145933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008755423824980884</v>
+      </c>
+      <c r="F47">
+        <v>-0.005064860112838508</v>
+      </c>
+      <c r="G47">
+        <v>-0.02274806439431427</v>
+      </c>
+      <c r="H47">
+        <v>0.03937114872690069</v>
+      </c>
+      <c r="I47">
+        <v>0.1140290980428938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006542754340403108</v>
+        <v>0.007097825330190386</v>
       </c>
       <c r="C48">
-        <v>0.017165652975692</v>
+        <v>0.0270399079835872</v>
       </c>
       <c r="D48">
-        <v>-0.09596056637215911</v>
+        <v>0.08785807374783067</v>
       </c>
       <c r="E48">
-        <v>0.06417610745133628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.009815298222579901</v>
+      </c>
+      <c r="F48">
+        <v>0.03386978078397275</v>
+      </c>
+      <c r="G48">
+        <v>0.03936803139498314</v>
+      </c>
+      <c r="H48">
+        <v>0.07278399330788092</v>
+      </c>
+      <c r="I48">
+        <v>0.01940049872137125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03939383417491153</v>
+        <v>0.0196619277045145</v>
       </c>
       <c r="C50">
-        <v>0.06319127676585519</v>
+        <v>0.07311581373313709</v>
       </c>
       <c r="D50">
-        <v>-0.08021032260269134</v>
+        <v>0.05449847614913174</v>
       </c>
       <c r="E50">
-        <v>0.0203271609965032</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001092742589673326</v>
+      </c>
+      <c r="F50">
+        <v>0.006870206929375833</v>
+      </c>
+      <c r="G50">
+        <v>0.0378798294756791</v>
+      </c>
+      <c r="H50">
+        <v>0.01985682534647274</v>
+      </c>
+      <c r="I50">
+        <v>0.09010074360527263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0007495773633076153</v>
+        <v>0.002911412375921597</v>
       </c>
       <c r="C51">
-        <v>0.009310751154482171</v>
+        <v>0.01754447905727798</v>
       </c>
       <c r="D51">
-        <v>-0.0697890074744108</v>
+        <v>0.07512531577385916</v>
       </c>
       <c r="E51">
-        <v>-0.002470878169991632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02958622056164852</v>
+      </c>
+      <c r="F51">
+        <v>0.03474650244379592</v>
+      </c>
+      <c r="G51">
+        <v>0.04777523164405072</v>
+      </c>
+      <c r="H51">
+        <v>0.04386290003970454</v>
+      </c>
+      <c r="I51">
+        <v>0.01017216253104725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1018843826728717</v>
+        <v>0.06681765745293937</v>
       </c>
       <c r="C53">
-        <v>0.1262803893377845</v>
+        <v>0.1516631580392845</v>
       </c>
       <c r="D53">
-        <v>-0.0235397628605938</v>
+        <v>0.0004497062826189896</v>
       </c>
       <c r="E53">
-        <v>0.07524326058498848</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04123135785179066</v>
+      </c>
+      <c r="F53">
+        <v>0.06030063189670012</v>
+      </c>
+      <c r="G53">
+        <v>0.03067637777473373</v>
+      </c>
+      <c r="H53">
+        <v>0.003059287599870469</v>
+      </c>
+      <c r="I53">
+        <v>0.09962854876859786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01375932881076491</v>
+        <v>0.01089787082194246</v>
       </c>
       <c r="C54">
-        <v>0.02298864909238136</v>
+        <v>0.03619103720768445</v>
       </c>
       <c r="D54">
-        <v>-0.117312229469264</v>
+        <v>0.094497100818625</v>
       </c>
       <c r="E54">
-        <v>0.01723807995165346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01023230297317269</v>
+      </c>
+      <c r="F54">
+        <v>-0.002027891491663997</v>
+      </c>
+      <c r="G54">
+        <v>0.05527738390042525</v>
+      </c>
+      <c r="H54">
+        <v>0.06880681307270835</v>
+      </c>
+      <c r="I54">
+        <v>0.05929966042595962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09155451880655442</v>
+        <v>0.05508033310033073</v>
       </c>
       <c r="C55">
-        <v>0.1046113641219133</v>
+        <v>0.124929324989317</v>
       </c>
       <c r="D55">
-        <v>-0.008436585733779273</v>
+        <v>-0.01546830952002959</v>
       </c>
       <c r="E55">
-        <v>0.02901680216020206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004194559666233666</v>
+      </c>
+      <c r="F55">
+        <v>0.02624843516739121</v>
+      </c>
+      <c r="G55">
+        <v>0.04029314863557169</v>
+      </c>
+      <c r="H55">
+        <v>-0.01127024137486222</v>
+      </c>
+      <c r="I55">
+        <v>0.07794165511674148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1286859482664117</v>
+        <v>0.07993700509843776</v>
       </c>
       <c r="C56">
-        <v>0.1334463611822581</v>
+        <v>0.1743125975454729</v>
       </c>
       <c r="D56">
-        <v>-0.004259699098057757</v>
+        <v>-0.01646057694988495</v>
       </c>
       <c r="E56">
-        <v>0.03785959337166844</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03403228571776661</v>
+      </c>
+      <c r="F56">
+        <v>0.02241902517315535</v>
+      </c>
+      <c r="G56">
+        <v>0.04776129178439981</v>
+      </c>
+      <c r="H56">
+        <v>-0.02759668971605805</v>
+      </c>
+      <c r="I56">
+        <v>0.09031963734425891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02321425324913209</v>
+        <v>-0.005303780110589292</v>
       </c>
       <c r="C58">
-        <v>0.02039736391858466</v>
+        <v>0.04277261409863192</v>
       </c>
       <c r="D58">
-        <v>-0.2149937819420548</v>
+        <v>0.2853766353489651</v>
       </c>
       <c r="E58">
-        <v>0.07211066379251863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.03681061538233504</v>
+      </c>
+      <c r="F58">
+        <v>0.09027605455487425</v>
+      </c>
+      <c r="G58">
+        <v>0.07138362845055553</v>
+      </c>
+      <c r="H58">
+        <v>-0.1502388335996495</v>
+      </c>
+      <c r="I58">
+        <v>-0.05177345335671891</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1717453968240696</v>
+        <v>0.2312001376440123</v>
       </c>
       <c r="C59">
-        <v>-0.1504142605681849</v>
+        <v>-0.09612077276640381</v>
       </c>
       <c r="D59">
-        <v>-0.04824360994094979</v>
+        <v>0.06351705395647579</v>
       </c>
       <c r="E59">
-        <v>0.04900564111771375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03744524403722709</v>
+      </c>
+      <c r="F59">
+        <v>0.01030497366202338</v>
+      </c>
+      <c r="G59">
+        <v>9.277901032697131e-05</v>
+      </c>
+      <c r="H59">
+        <v>-0.01799885120559588</v>
+      </c>
+      <c r="I59">
+        <v>0.009336841015484399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.201501666902092</v>
+        <v>0.1635283595378594</v>
       </c>
       <c r="C60">
-        <v>0.1032979717645483</v>
+        <v>0.1637317843512912</v>
       </c>
       <c r="D60">
-        <v>-0.1532805425011666</v>
+        <v>0.07982326645350146</v>
       </c>
       <c r="E60">
-        <v>-0.2706371574871611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2564712051904542</v>
+      </c>
+      <c r="F60">
+        <v>-0.1567016111822293</v>
+      </c>
+      <c r="G60">
+        <v>-0.2512234185318295</v>
+      </c>
+      <c r="H60">
+        <v>-0.1102281219925714</v>
+      </c>
+      <c r="I60">
+        <v>-0.0349824170681994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02875087005672084</v>
+        <v>0.01754740226506125</v>
       </c>
       <c r="C61">
-        <v>0.05750238346547782</v>
+        <v>0.07044837675103943</v>
       </c>
       <c r="D61">
-        <v>-0.1171665285556613</v>
+        <v>0.09261965906807818</v>
       </c>
       <c r="E61">
-        <v>0.000432577641843411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03429116983720372</v>
+      </c>
+      <c r="F61">
+        <v>-0.01601451641628137</v>
+      </c>
+      <c r="G61">
+        <v>0.005117262087738729</v>
+      </c>
+      <c r="H61">
+        <v>0.0973729139785464</v>
+      </c>
+      <c r="I61">
+        <v>0.01292703564219658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.009221996803479423</v>
+        <v>0.005714120917542723</v>
       </c>
       <c r="C63">
-        <v>0.02494231034437633</v>
+        <v>0.0349901824346684</v>
       </c>
       <c r="D63">
-        <v>-0.09600569040267691</v>
+        <v>0.07549208431729022</v>
       </c>
       <c r="E63">
-        <v>0.01158529019743203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02062080466894154</v>
+      </c>
+      <c r="F63">
+        <v>0.01925003429012186</v>
+      </c>
+      <c r="G63">
+        <v>0.03101157826119457</v>
+      </c>
+      <c r="H63">
+        <v>0.05284299757520471</v>
+      </c>
+      <c r="I63">
+        <v>0.009972397195276752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05354186307265264</v>
+        <v>0.02788127883703612</v>
       </c>
       <c r="C64">
-        <v>0.08618852244319297</v>
+        <v>0.1002878773630498</v>
       </c>
       <c r="D64">
-        <v>-0.06716171794053422</v>
+        <v>0.05145215162122838</v>
       </c>
       <c r="E64">
-        <v>0.02346422405361175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02587315203484309</v>
+      </c>
+      <c r="F64">
+        <v>0.03176571634761897</v>
+      </c>
+      <c r="G64">
+        <v>-0.01998905661507758</v>
+      </c>
+      <c r="H64">
+        <v>0.1239280957919123</v>
+      </c>
+      <c r="I64">
+        <v>0.001141704662640249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02421661574928379</v>
+        <v>0.02030949173599753</v>
       </c>
       <c r="C65">
-        <v>0.01744439074386286</v>
+        <v>0.03675746589202392</v>
       </c>
       <c r="D65">
-        <v>-0.1197844553954607</v>
+        <v>0.1077784301558319</v>
       </c>
       <c r="E65">
-        <v>0.001588358102735444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03948850153470283</v>
+      </c>
+      <c r="F65">
+        <v>0.008701381763844806</v>
+      </c>
+      <c r="G65">
+        <v>0.01023427611311973</v>
+      </c>
+      <c r="H65">
+        <v>0.01471069694901508</v>
+      </c>
+      <c r="I65">
+        <v>0.01379673517803279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02452705840161081</v>
+        <v>0.01372879362840358</v>
       </c>
       <c r="C66">
-        <v>0.06398565292309132</v>
+        <v>0.08665103752175667</v>
       </c>
       <c r="D66">
-        <v>-0.120870973992563</v>
+        <v>0.1321193464792645</v>
       </c>
       <c r="E66">
-        <v>-0.02627963558803387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0370663331044904</v>
+      </c>
+      <c r="F66">
+        <v>-0.02046492972438112</v>
+      </c>
+      <c r="G66">
+        <v>0.01147057888573043</v>
+      </c>
+      <c r="H66">
+        <v>0.0560369018555883</v>
+      </c>
+      <c r="I66">
+        <v>-0.05635923798895993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02989987963911883</v>
+        <v>0.02950442761160035</v>
       </c>
       <c r="C67">
-        <v>0.02342843504779124</v>
+        <v>0.03095446673041633</v>
       </c>
       <c r="D67">
-        <v>-0.04251056536720989</v>
+        <v>0.03408174683240344</v>
       </c>
       <c r="E67">
-        <v>0.004237554454715159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002287380870322618</v>
+      </c>
+      <c r="F67">
+        <v>-0.03314827317060681</v>
+      </c>
+      <c r="G67">
+        <v>0.03110905328794581</v>
+      </c>
+      <c r="H67">
+        <v>0.05595568228541963</v>
+      </c>
+      <c r="I67">
+        <v>0.003702173832057472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2098789971292692</v>
+        <v>0.2608777582058294</v>
       </c>
       <c r="C68">
-        <v>-0.1633506943356861</v>
+        <v>-0.09741446718893744</v>
       </c>
       <c r="D68">
-        <v>-0.03434179104756381</v>
+        <v>0.03211659653592917</v>
       </c>
       <c r="E68">
-        <v>0.01301938122804125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00322780742234199</v>
+      </c>
+      <c r="F68">
+        <v>0.0256125439866976</v>
+      </c>
+      <c r="G68">
+        <v>0.04943169494155093</v>
+      </c>
+      <c r="H68">
+        <v>-0.04800878882671225</v>
+      </c>
+      <c r="I68">
+        <v>0.0714036598662046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06105991337666463</v>
+        <v>0.03201983136979341</v>
       </c>
       <c r="C69">
-        <v>0.1157205961449575</v>
+        <v>0.1195723930046406</v>
       </c>
       <c r="D69">
-        <v>-0.08643820048994601</v>
+        <v>0.04298063051459556</v>
       </c>
       <c r="E69">
-        <v>0.01191627812105572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008478099997478117</v>
+      </c>
+      <c r="F69">
+        <v>-0.01112419293313674</v>
+      </c>
+      <c r="G69">
+        <v>-0.01080888247641171</v>
+      </c>
+      <c r="H69">
+        <v>0.04002941436820272</v>
+      </c>
+      <c r="I69">
+        <v>0.06593994867657649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2089997056828115</v>
+        <v>0.2590057754889793</v>
       </c>
       <c r="C71">
-        <v>-0.1802753426944027</v>
+        <v>-0.1135465591652033</v>
       </c>
       <c r="D71">
-        <v>-0.04392964508779771</v>
+        <v>0.03303780398233321</v>
       </c>
       <c r="E71">
-        <v>0.03169232067505671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.01128635718913912</v>
+      </c>
+      <c r="F71">
+        <v>0.02770603799203328</v>
+      </c>
+      <c r="G71">
+        <v>0.05457589278747986</v>
+      </c>
+      <c r="H71">
+        <v>-0.007609503079691454</v>
+      </c>
+      <c r="I71">
+        <v>0.1651808807071177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1022047888133115</v>
+        <v>0.0676399125164422</v>
       </c>
       <c r="C72">
-        <v>0.07449259279763701</v>
+        <v>0.116847248085567</v>
       </c>
       <c r="D72">
-        <v>-0.09486193011555348</v>
+        <v>0.07089848566627263</v>
       </c>
       <c r="E72">
-        <v>-0.05156758213071501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08966250428936989</v>
+      </c>
+      <c r="F72">
+        <v>-0.006696445944387557</v>
+      </c>
+      <c r="G72">
+        <v>0.00983509800721024</v>
+      </c>
+      <c r="H72">
+        <v>0.05585654667347874</v>
+      </c>
+      <c r="I72">
+        <v>-0.01851607024713402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1848353610618284</v>
+        <v>0.1510681495331475</v>
       </c>
       <c r="C73">
-        <v>0.04817651423486937</v>
+        <v>0.1205739359508419</v>
       </c>
       <c r="D73">
-        <v>-0.1908686324640432</v>
+        <v>0.07224865636411069</v>
       </c>
       <c r="E73">
-        <v>-0.4485485906125767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.4410669102285902</v>
+      </c>
+      <c r="F73">
+        <v>-0.2330494397230963</v>
+      </c>
+      <c r="G73">
+        <v>-0.4355812536846671</v>
+      </c>
+      <c r="H73">
+        <v>-0.01954732535676812</v>
+      </c>
+      <c r="I73">
+        <v>-0.0369929848986765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.101998462876647</v>
+        <v>0.06204607676239091</v>
       </c>
       <c r="C74">
-        <v>0.1113755625292409</v>
+        <v>0.1354706015841796</v>
       </c>
       <c r="D74">
-        <v>0.01451155476786951</v>
+        <v>-0.03131231354140845</v>
       </c>
       <c r="E74">
-        <v>0.05675308841228739</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01997253743636151</v>
+      </c>
+      <c r="F74">
+        <v>0.05450363723222766</v>
+      </c>
+      <c r="G74">
+        <v>0.004721204164156924</v>
+      </c>
+      <c r="H74">
+        <v>-0.01798020881679067</v>
+      </c>
+      <c r="I74">
+        <v>0.09504702829552916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2380184168057188</v>
+        <v>0.1536985218389217</v>
       </c>
       <c r="C75">
-        <v>0.1971913951593376</v>
+        <v>0.25552945441481</v>
       </c>
       <c r="D75">
-        <v>0.1002622584077889</v>
+        <v>-0.1271922749394693</v>
       </c>
       <c r="E75">
-        <v>0.0272536268625347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0826205108450585</v>
+      </c>
+      <c r="F75">
+        <v>-0.03087386639864297</v>
+      </c>
+      <c r="G75">
+        <v>0.06323819177987899</v>
+      </c>
+      <c r="H75">
+        <v>-0.02197959392931249</v>
+      </c>
+      <c r="I75">
+        <v>0.06931199594874476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1382637974354643</v>
+        <v>0.08447150887204319</v>
       </c>
       <c r="C76">
-        <v>0.1404470680136638</v>
+        <v>0.1744606952886224</v>
       </c>
       <c r="D76">
-        <v>-0.01893384008034537</v>
+        <v>-0.01641444011301339</v>
       </c>
       <c r="E76">
-        <v>0.04808833067549708</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03764970813915049</v>
+      </c>
+      <c r="F76">
+        <v>0.01330662130944144</v>
+      </c>
+      <c r="G76">
+        <v>0.05969845171217605</v>
+      </c>
+      <c r="H76">
+        <v>0.01021983804045825</v>
+      </c>
+      <c r="I76">
+        <v>0.09739138284917608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02467712828202862</v>
+        <v>0.03511486719276563</v>
       </c>
       <c r="C77">
-        <v>0.0843700979118728</v>
+        <v>0.09766523216532516</v>
       </c>
       <c r="D77">
-        <v>-0.06497117542814394</v>
+        <v>0.2415156202738536</v>
       </c>
       <c r="E77">
-        <v>0.3234749934058349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7032803250642581</v>
+      </c>
+      <c r="F77">
+        <v>-0.3806985927447347</v>
+      </c>
+      <c r="G77">
+        <v>-0.3639506544809593</v>
+      </c>
+      <c r="H77">
+        <v>-0.208453714584129</v>
+      </c>
+      <c r="I77">
+        <v>0.1197695187740285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02284846295205762</v>
+        <v>0.02040641415597659</v>
       </c>
       <c r="C78">
-        <v>0.07085411597972292</v>
+        <v>0.08278361334526652</v>
       </c>
       <c r="D78">
-        <v>-0.1612727909343781</v>
+        <v>0.1429098311183243</v>
       </c>
       <c r="E78">
-        <v>0.01817434690459493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04526573546965929</v>
+      </c>
+      <c r="F78">
+        <v>0.03728823128263762</v>
+      </c>
+      <c r="G78">
+        <v>0.0173031182574036</v>
+      </c>
+      <c r="H78">
+        <v>0.01771666365076518</v>
+      </c>
+      <c r="I78">
+        <v>-0.02247176896921568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.07373554292251677</v>
+        <v>0.04440947016219871</v>
       </c>
       <c r="C79">
-        <v>0.1479555548694564</v>
+        <v>0.1690305943720403</v>
       </c>
       <c r="D79">
-        <v>0.08097652167791057</v>
+        <v>-0.04116226315730149</v>
       </c>
       <c r="E79">
-        <v>0.5772289553918654</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1397139350633177</v>
+      </c>
+      <c r="F79">
+        <v>0.7903995975794136</v>
+      </c>
+      <c r="G79">
+        <v>-0.4597732909598025</v>
+      </c>
+      <c r="H79">
+        <v>-0.06388943155969375</v>
+      </c>
+      <c r="I79">
+        <v>-0.1378161353353782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.006884885097495482</v>
+        <v>0.001955151588566456</v>
       </c>
       <c r="C80">
-        <v>0.05229530487122232</v>
+        <v>0.05142655665523653</v>
       </c>
       <c r="D80">
-        <v>-0.04849700231273495</v>
+        <v>0.04375453720284651</v>
       </c>
       <c r="E80">
-        <v>0.004451965864157368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01747885984689946</v>
+      </c>
+      <c r="F80">
+        <v>0.01670506286528278</v>
+      </c>
+      <c r="G80">
+        <v>0.06676655373717021</v>
+      </c>
+      <c r="H80">
+        <v>0.006186809465233925</v>
+      </c>
+      <c r="I80">
+        <v>0.03057933251173926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1187049139856749</v>
+        <v>0.066123999634483</v>
       </c>
       <c r="C81">
-        <v>0.139967124703368</v>
+        <v>0.163734788309396</v>
       </c>
       <c r="D81">
-        <v>0.06399549581860818</v>
+        <v>-0.07545407620627073</v>
       </c>
       <c r="E81">
-        <v>0.1025301787728596</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07587051754531667</v>
+      </c>
+      <c r="F81">
+        <v>0.05242336753723195</v>
+      </c>
+      <c r="G81">
+        <v>0.08158139971737335</v>
+      </c>
+      <c r="H81">
+        <v>0.04174963354234529</v>
+      </c>
+      <c r="I81">
+        <v>0.1168680300059484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2431232281309176</v>
+        <v>0.1317265286247199</v>
       </c>
       <c r="C82">
-        <v>0.2991966521954689</v>
+        <v>0.3189775821173509</v>
       </c>
       <c r="D82">
-        <v>0.2091186969147224</v>
+        <v>-0.2209449909250341</v>
       </c>
       <c r="E82">
-        <v>-0.05921577027636234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04140638207338715</v>
+      </c>
+      <c r="F82">
+        <v>-0.1036483469826186</v>
+      </c>
+      <c r="G82">
+        <v>0.08424670850421087</v>
+      </c>
+      <c r="H82">
+        <v>0.06378695937694041</v>
+      </c>
+      <c r="I82">
+        <v>0.09808044927720046</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.005395199955727644</v>
+        <v>-0.006833793967715641</v>
       </c>
       <c r="C83">
-        <v>0.05885607186130111</v>
+        <v>0.04756165017063854</v>
       </c>
       <c r="D83">
-        <v>-0.02524378946124003</v>
+        <v>0.04235774034120892</v>
       </c>
       <c r="E83">
-        <v>0.07005999644407007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.103970543508956</v>
+      </c>
+      <c r="F83">
+        <v>-0.01294761474584104</v>
+      </c>
+      <c r="G83">
+        <v>0.05585097068936865</v>
+      </c>
+      <c r="H83">
+        <v>0.04689155464138869</v>
+      </c>
+      <c r="I83">
+        <v>-0.1204897242297589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001208980248812394</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01314179147464477</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.03646630710625171</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005539819819166516</v>
+      </c>
+      <c r="F84">
+        <v>0.01847614134402511</v>
+      </c>
+      <c r="G84">
+        <v>0.03649313682664793</v>
+      </c>
+      <c r="H84">
+        <v>-0.01269427912935851</v>
+      </c>
+      <c r="I84">
+        <v>-0.02825862274130094</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1513390598275512</v>
+        <v>0.08934732057498954</v>
       </c>
       <c r="C85">
-        <v>0.1428284117209247</v>
+        <v>0.1860494778914902</v>
       </c>
       <c r="D85">
-        <v>0.05013499811795233</v>
+        <v>-0.09069099804175666</v>
       </c>
       <c r="E85">
-        <v>-0.0007312390222244709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0001001846143351902</v>
+      </c>
+      <c r="F85">
+        <v>0.07376104102467591</v>
+      </c>
+      <c r="G85">
+        <v>0.02003090835276503</v>
+      </c>
+      <c r="H85">
+        <v>-0.01086152894904671</v>
+      </c>
+      <c r="I85">
+        <v>0.06984906738504981</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01336917693572758</v>
+        <v>0.01307910472888695</v>
       </c>
       <c r="C86">
-        <v>0.02612681982246936</v>
+        <v>0.03111006368171337</v>
       </c>
       <c r="D86">
-        <v>-0.09136384877457936</v>
+        <v>0.1045639950431358</v>
       </c>
       <c r="E86">
-        <v>0.06728438446622477</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04455399612525488</v>
+      </c>
+      <c r="F86">
+        <v>-0.01766357901404671</v>
+      </c>
+      <c r="G86">
+        <v>0.01518032503692855</v>
+      </c>
+      <c r="H86">
+        <v>0.005409575446107159</v>
+      </c>
+      <c r="I86">
+        <v>0.1182028427752052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02061018819204692</v>
+        <v>0.02304567252240421</v>
       </c>
       <c r="C87">
-        <v>0.02127837760630154</v>
+        <v>0.04504275234072415</v>
       </c>
       <c r="D87">
-        <v>-0.1242075295385307</v>
+        <v>0.1485607590407207</v>
       </c>
       <c r="E87">
-        <v>0.05316131566004683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01777836125743373</v>
+      </c>
+      <c r="F87">
+        <v>0.03578859176525055</v>
+      </c>
+      <c r="G87">
+        <v>0.06052362186329418</v>
+      </c>
+      <c r="H87">
+        <v>0.01440746960176926</v>
+      </c>
+      <c r="I87">
+        <v>-0.08558022144338065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06181078906986001</v>
+        <v>0.04187600994718833</v>
       </c>
       <c r="C88">
-        <v>0.04369628386693792</v>
+        <v>0.06335674852224567</v>
       </c>
       <c r="D88">
-        <v>-0.04649003644989381</v>
+        <v>0.01227352689507731</v>
       </c>
       <c r="E88">
-        <v>0.0251285566668298</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02178177051983911</v>
+      </c>
+      <c r="F88">
+        <v>0.02377636997306052</v>
+      </c>
+      <c r="G88">
+        <v>-0.008403064716586903</v>
+      </c>
+      <c r="H88">
+        <v>0.02452828022417036</v>
+      </c>
+      <c r="I88">
+        <v>0.03989160915921684</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3272331727985197</v>
+        <v>0.398242472673974</v>
       </c>
       <c r="C89">
-        <v>-0.3312352958464748</v>
+        <v>-0.2072348023263336</v>
       </c>
       <c r="D89">
-        <v>-0.01573270630618815</v>
+        <v>0.01411404825729945</v>
       </c>
       <c r="E89">
-        <v>0.1210462978650205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05039054824344855</v>
+      </c>
+      <c r="F89">
+        <v>0.04473600766853508</v>
+      </c>
+      <c r="G89">
+        <v>0.09160810117666594</v>
+      </c>
+      <c r="H89">
+        <v>0.153677079243639</v>
+      </c>
+      <c r="I89">
+        <v>-0.3802661051903493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2553306140767335</v>
+        <v>0.3082140062099001</v>
       </c>
       <c r="C90">
-        <v>-0.2446636038632099</v>
+        <v>-0.1445942427529312</v>
       </c>
       <c r="D90">
-        <v>-0.03376632314022412</v>
+        <v>0.03801849947689025</v>
       </c>
       <c r="E90">
-        <v>0.01076250901757702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01107955661557533</v>
+      </c>
+      <c r="F90">
+        <v>-0.01505559968710722</v>
+      </c>
+      <c r="G90">
+        <v>0.04640430592572432</v>
+      </c>
+      <c r="H90">
+        <v>-0.03507838454913421</v>
+      </c>
+      <c r="I90">
+        <v>0.05870452575013966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1565345941915897</v>
+        <v>0.09195885405875374</v>
       </c>
       <c r="C91">
-        <v>0.1836515073646627</v>
+        <v>0.2046453220009483</v>
       </c>
       <c r="D91">
-        <v>0.1019719158453259</v>
+        <v>-0.1097059327539328</v>
       </c>
       <c r="E91">
-        <v>0.1166771817908187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0796958410594424</v>
+      </c>
+      <c r="F91">
+        <v>0.07889969551312942</v>
+      </c>
+      <c r="G91">
+        <v>0.02176569852396182</v>
+      </c>
+      <c r="H91">
+        <v>-0.01264309456650468</v>
+      </c>
+      <c r="I91">
+        <v>0.11698498204227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2258220385568406</v>
+        <v>0.3102231171814951</v>
       </c>
       <c r="C92">
-        <v>-0.2530392178684061</v>
+        <v>-0.180151711054879</v>
       </c>
       <c r="D92">
-        <v>0.02497018918101003</v>
+        <v>0.009135199822223685</v>
       </c>
       <c r="E92">
-        <v>0.08080877841913112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0821829052164607</v>
+      </c>
+      <c r="F92">
+        <v>0.02940190583966538</v>
+      </c>
+      <c r="G92">
+        <v>0.02613134154198914</v>
+      </c>
+      <c r="H92">
+        <v>0.01085534194676552</v>
+      </c>
+      <c r="I92">
+        <v>-0.03840389503282347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2781664694947583</v>
+        <v>0.3231973750478004</v>
       </c>
       <c r="C93">
-        <v>-0.2511261093605433</v>
+        <v>-0.1506439766134851</v>
       </c>
       <c r="D93">
-        <v>-0.02426110074028742</v>
+        <v>-0.006651668911831663</v>
       </c>
       <c r="E93">
-        <v>0.002232598960713747</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03329978672794504</v>
+      </c>
+      <c r="F93">
+        <v>0.01876331109379044</v>
+      </c>
+      <c r="G93">
+        <v>-0.02473346682583922</v>
+      </c>
+      <c r="H93">
+        <v>-0.01713386379917417</v>
+      </c>
+      <c r="I93">
+        <v>0.1214187057060984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3118989419067303</v>
+        <v>0.1931395265411975</v>
       </c>
       <c r="C94">
-        <v>0.2668118349334177</v>
+        <v>0.3444221282343238</v>
       </c>
       <c r="D94">
-        <v>0.365331424850082</v>
+        <v>-0.361023763894849</v>
       </c>
       <c r="E94">
-        <v>-0.1325170310829691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04864302792172746</v>
+      </c>
+      <c r="F94">
+        <v>-0.1064487705726125</v>
+      </c>
+      <c r="G94">
+        <v>0.2622581623544518</v>
+      </c>
+      <c r="H94">
+        <v>-0.1351423419191721</v>
+      </c>
+      <c r="I94">
+        <v>-0.4077484555168183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0254233771544846</v>
+        <v>0.02536324850812091</v>
       </c>
       <c r="C95">
-        <v>0.03935187557903233</v>
+        <v>0.06145451548250512</v>
       </c>
       <c r="D95">
-        <v>-0.08856154562021394</v>
+        <v>0.1178519174578947</v>
       </c>
       <c r="E95">
-        <v>0.1889312215020864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.2150957740580692</v>
+      </c>
+      <c r="F95">
+        <v>-0.1417926256482962</v>
+      </c>
+      <c r="G95">
+        <v>-0.1241452469334525</v>
+      </c>
+      <c r="H95">
+        <v>0.4631717237490246</v>
+      </c>
+      <c r="I95">
+        <v>-0.4943266172887862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008358647496054054</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.000100318631984238</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008063168861627164</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.000560815826580119</v>
+      </c>
+      <c r="F97">
+        <v>-0.001472388000960786</v>
+      </c>
+      <c r="G97">
+        <v>-0.001212310704714483</v>
+      </c>
+      <c r="H97">
+        <v>0.0006628595346770149</v>
+      </c>
+      <c r="I97">
+        <v>-2.354529153285089e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.149384486705227</v>
+        <v>0.1274945933827764</v>
       </c>
       <c r="C98">
-        <v>0.07171204624040581</v>
+        <v>0.1258732819484012</v>
       </c>
       <c r="D98">
-        <v>-0.120952853653752</v>
+        <v>0.06667317715262655</v>
       </c>
       <c r="E98">
-        <v>-0.2791940595716627</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2871050023989657</v>
+      </c>
+      <c r="F98">
+        <v>-0.1458508860350515</v>
+      </c>
+      <c r="G98">
+        <v>-0.2534331239087064</v>
+      </c>
+      <c r="H98">
+        <v>-0.05885354920814182</v>
+      </c>
+      <c r="I98">
+        <v>-0.006222628930161961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002063452013175389</v>
+        <v>0.00115728581862776</v>
       </c>
       <c r="C101">
-        <v>0.02030634227056263</v>
+        <v>0.02782331019069528</v>
       </c>
       <c r="D101">
-        <v>-0.1022038878685856</v>
+        <v>0.1018129861977283</v>
       </c>
       <c r="E101">
-        <v>0.0171431557436372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03190602266942089</v>
+      </c>
+      <c r="F101">
+        <v>0.02813678507726346</v>
+      </c>
+      <c r="G101">
+        <v>0.05120570628515485</v>
+      </c>
+      <c r="H101">
+        <v>0.0994884349109742</v>
+      </c>
+      <c r="I101">
+        <v>0.02055951621529134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1095163599925619</v>
+        <v>0.05440108457603169</v>
       </c>
       <c r="C102">
-        <v>0.1530413312204837</v>
+        <v>0.1521415942588712</v>
       </c>
       <c r="D102">
-        <v>0.06943715808409592</v>
+        <v>-0.08900147973466306</v>
       </c>
       <c r="E102">
-        <v>-0.01173062241854052</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.029819547147749</v>
+      </c>
+      <c r="F102">
+        <v>-0.0634610121052098</v>
+      </c>
+      <c r="G102">
+        <v>0.001108124876259472</v>
+      </c>
+      <c r="H102">
+        <v>0.05468266599614253</v>
+      </c>
+      <c r="I102">
+        <v>0.02710631728680783</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
